--- a/excel_reports/Nick_Oberle.xlsx
+++ b/excel_reports/Nick_Oberle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13599" uniqueCount="3089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13655" uniqueCount="3093">
   <si>
     <t>Policy Record</t>
   </si>
@@ -8807,6 +8807,9 @@
     <t>Boyd</t>
   </si>
   <si>
+    <t>3832208703</t>
+  </si>
+  <si>
     <t>3899766403</t>
   </si>
   <si>
@@ -8936,6 +8939,9 @@
     <t>3172342152</t>
   </si>
   <si>
+    <t>3172252242</t>
+  </si>
+  <si>
     <t>3172322324</t>
   </si>
   <si>
@@ -8996,6 +9002,9 @@
     <t>3172197737</t>
   </si>
   <si>
+    <t>3384335194</t>
+  </si>
+  <si>
     <t>3635643687</t>
   </si>
   <si>
@@ -9096,6 +9105,9 @@
   </si>
   <si>
     <t>3172252290</t>
+  </si>
+  <si>
+    <t>3172322116</t>
   </si>
   <si>
     <t>3172342147</t>
@@ -9700,12 +9712,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="B2" s="2">
         <v>505</v>
@@ -9713,7 +9725,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="B3" s="2">
         <v>626</v>
@@ -9721,18 +9733,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3064</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -9741,7 +9753,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -9749,30 +9761,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3068</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3070</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -9781,12 +9793,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>3072</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="B12" s="2">
         <v>55</v>
@@ -9794,20 +9806,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>3074</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3088</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>3076</v>
+        <v>3080</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -9816,12 +9828,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3077</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="B20">
         <v>85</v>
@@ -9829,15 +9841,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>3080</v>
+        <v>3084</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -9845,7 +9857,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -9854,7 +9866,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -9863,7 +9875,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -9871,7 +9883,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -9879,7 +9891,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -9887,7 +9899,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -9896,7 +9908,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -49487,7 +49499,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T217"/>
+  <dimension ref="A1:T225"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49871,19 +49883,19 @@
         <v>2928</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>357</v>
+        <v>2032</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>358</v>
+        <v>2033</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>357</v>
@@ -49895,7 +49907,7 @@
         <v>2914</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K16" t="s">
         <v>2916</v>
@@ -49904,24 +49916,24 @@
         <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>679</v>
+        <v>135</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>680</v>
+        <v>87</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>357</v>
@@ -49939,7 +49951,7 @@
         <v>2914</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>2915</v>
+        <v>2930</v>
       </c>
       <c r="K18" t="s">
         <v>2916</v>
@@ -49948,10 +49960,10 @@
         <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>1817</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -49959,13 +49971,13 @@
         <v>2931</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>270</v>
+        <v>679</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>357</v>
@@ -49983,7 +49995,7 @@
         <v>2914</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K20" t="s">
         <v>2916</v>
@@ -49992,7 +50004,7 @@
         <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>701</v>
+        <v>1817</v>
       </c>
       <c r="N20" t="s">
         <v>21</v>
@@ -50003,13 +50015,13 @@
         <v>2932</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>357</v>
@@ -50036,10 +50048,10 @@
         <v>19</v>
       </c>
       <c r="M22" t="s">
-        <v>1610</v>
+        <v>701</v>
       </c>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -50047,10 +50059,10 @@
         <v>2933</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>704</v>
@@ -50091,13 +50103,13 @@
         <v>2934</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>141</v>
+        <v>601</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>357</v>
@@ -50124,10 +50136,10 @@
         <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>749</v>
+        <v>1610</v>
       </c>
       <c r="N26" t="s">
-        <v>387</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -50135,13 +50147,13 @@
         <v>2935</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>651</v>
+        <v>141</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>357</v>
@@ -50158,6 +50170,9 @@
       <c r="I28" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J28" s="8" t="s">
+        <v>2921</v>
+      </c>
       <c r="K28" t="s">
         <v>2916</v>
       </c>
@@ -50165,10 +50180,10 @@
         <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>1578</v>
+        <v>749</v>
       </c>
       <c r="N28" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -50176,13 +50191,13 @@
         <v>2936</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>776</v>
+        <v>651</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>357</v>
@@ -50206,10 +50221,10 @@
         <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>1410</v>
+        <v>1578</v>
       </c>
       <c r="N30" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -50217,13 +50232,13 @@
         <v>2937</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>545</v>
+        <v>776</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>357</v>
@@ -50240,9 +50255,6 @@
       <c r="I32" s="8" t="s">
         <v>2914</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>2921</v>
-      </c>
       <c r="K32" t="s">
         <v>2916</v>
       </c>
@@ -50250,7 +50262,7 @@
         <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>579</v>
+        <v>1410</v>
       </c>
       <c r="N32" t="s">
         <v>387</v>
@@ -50261,13 +50273,13 @@
         <v>2938</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>797</v>
+        <v>545</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>357</v>
@@ -50294,10 +50306,10 @@
         <v>19</v>
       </c>
       <c r="M34" t="s">
-        <v>2774</v>
+        <v>579</v>
       </c>
       <c r="N34" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -50305,13 +50317,13 @@
         <v>2939</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>692</v>
+        <v>797</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>357</v>
@@ -50328,6 +50340,9 @@
       <c r="I36" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J36" s="8" t="s">
+        <v>2921</v>
+      </c>
       <c r="K36" t="s">
         <v>2916</v>
       </c>
@@ -50335,10 +50350,10 @@
         <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>829</v>
+        <v>2774</v>
       </c>
       <c r="N36" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -50346,13 +50361,13 @@
         <v>2940</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>629</v>
+        <v>692</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>357</v>
@@ -50369,9 +50384,6 @@
       <c r="I38" s="8" t="s">
         <v>2914</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>2921</v>
-      </c>
       <c r="K38" t="s">
         <v>2916</v>
       </c>
@@ -50379,10 +50391,10 @@
         <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="N38" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -50390,13 +50402,13 @@
         <v>2941</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>854</v>
+        <v>629</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>357</v>
@@ -50414,7 +50426,7 @@
         <v>2914</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K40" t="s">
         <v>2916</v>
@@ -50423,10 +50435,10 @@
         <v>19</v>
       </c>
       <c r="M40" t="s">
-        <v>316</v>
+        <v>844</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -50434,13 +50446,13 @@
         <v>2942</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>885</v>
+        <v>853</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>41</v>
+        <v>854</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>886</v>
+        <v>855</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>357</v>
@@ -50467,10 +50479,10 @@
         <v>19</v>
       </c>
       <c r="M42" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s">
-        <v>2254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -50478,13 +50490,13 @@
         <v>2943</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>902</v>
+        <v>41</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>357</v>
@@ -50502,7 +50514,7 @@
         <v>2914</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>2929</v>
+        <v>2915</v>
       </c>
       <c r="K44" t="s">
         <v>2916</v>
@@ -50511,10 +50523,10 @@
         <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>463</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -50522,13 +50534,13 @@
         <v>2944</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>357</v>
@@ -50546,7 +50558,7 @@
         <v>2914</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>2915</v>
+        <v>2930</v>
       </c>
       <c r="K46" t="s">
         <v>2916</v>
@@ -50555,7 +50567,7 @@
         <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>2478</v>
+        <v>463</v>
       </c>
       <c r="N46" t="s">
         <v>315</v>
@@ -50566,10 +50578,10 @@
         <v>2945</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>510</v>
+        <v>913</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>909</v>
@@ -50610,13 +50622,13 @@
         <v>2946</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>357</v>
@@ -50634,7 +50646,7 @@
         <v>2914</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K50" t="s">
         <v>2916</v>
@@ -50643,10 +50655,10 @@
         <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>917</v>
+        <v>2478</v>
       </c>
       <c r="N50" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -50654,13 +50666,13 @@
         <v>2947</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>91</v>
+        <v>916</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>357</v>
@@ -50678,7 +50690,7 @@
         <v>2914</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K52" t="s">
         <v>2916</v>
@@ -50687,10 +50699,10 @@
         <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>97</v>
+        <v>917</v>
       </c>
       <c r="N52" t="s">
-        <v>59</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -50698,13 +50710,13 @@
         <v>2948</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>331</v>
+        <v>90</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>926</v>
+        <v>91</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>357</v>
@@ -50722,36 +50734,33 @@
         <v>2914</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K54" t="s">
         <v>2916</v>
       </c>
       <c r="L54" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M54" t="s">
-        <v>2949</v>
+        <v>97</v>
       </c>
       <c r="N54" t="s">
         <v>59</v>
       </c>
-      <c r="P54" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="7" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>968</v>
+        <v>925</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>969</v>
+        <v>331</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>970</v>
+        <v>926</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>357</v>
@@ -50769,19 +50778,22 @@
         <v>2914</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K56" t="s">
         <v>2916</v>
       </c>
       <c r="L56" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="M56" t="s">
-        <v>2734</v>
+        <v>2950</v>
       </c>
       <c r="N56" t="s">
-        <v>148</v>
+        <v>59</v>
+      </c>
+      <c r="P56" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -50789,13 +50801,13 @@
         <v>2951</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>2587</v>
+        <v>968</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>2588</v>
+        <v>969</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>1008</v>
+        <v>970</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>357</v>
@@ -50822,10 +50834,10 @@
         <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>2402</v>
+        <v>2734</v>
       </c>
       <c r="N58" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -50833,13 +50845,13 @@
         <v>2952</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>2953</v>
+        <v>2587</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1597</v>
+        <v>2588</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>2954</v>
+        <v>1008</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>357</v>
@@ -50857,7 +50869,7 @@
         <v>2914</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K60" t="s">
         <v>2916</v>
@@ -50866,24 +50878,24 @@
         <v>19</v>
       </c>
       <c r="M60" t="s">
-        <v>560</v>
+        <v>2402</v>
       </c>
       <c r="N60" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="7" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>2955</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>1077</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>357</v>
@@ -50901,7 +50913,7 @@
         <v>2914</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K62" t="s">
         <v>2916</v>
@@ -50910,10 +50922,10 @@
         <v>19</v>
       </c>
       <c r="M62" t="s">
-        <v>963</v>
+        <v>560</v>
       </c>
       <c r="N62" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -50921,13 +50933,13 @@
         <v>2956</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>357</v>
@@ -50944,6 +50956,9 @@
       <c r="I64" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J64" s="8" t="s">
+        <v>2915</v>
+      </c>
       <c r="K64" t="s">
         <v>2916</v>
       </c>
@@ -50951,54 +50966,51 @@
         <v>19</v>
       </c>
       <c r="M64" t="s">
+        <v>963</v>
+      </c>
+      <c r="N64" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="7" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>2914</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L66" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" t="s">
         <v>121</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N66" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="7" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>2914</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>2929</v>
-      </c>
-      <c r="K65" t="s">
-        <v>2916</v>
-      </c>
-      <c r="L65" t="s">
-        <v>19</v>
-      </c>
-      <c r="M65" t="s">
-        <v>1806</v>
-      </c>
-      <c r="N65" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -51006,13 +51018,13 @@
         <v>2958</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>270</v>
+        <v>1095</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>357</v>
@@ -51030,7 +51042,7 @@
         <v>2914</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="K67" t="s">
         <v>2916</v>
@@ -51039,10 +51051,10 @@
         <v>19</v>
       </c>
       <c r="M67" t="s">
-        <v>1142</v>
+        <v>1806</v>
       </c>
       <c r="N67" t="s">
-        <v>315</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -51050,13 +51062,13 @@
         <v>2959</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>1125</v>
+        <v>270</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>357</v>
@@ -51074,7 +51086,7 @@
         <v>2914</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K69" t="s">
         <v>2916</v>
@@ -51083,10 +51095,10 @@
         <v>19</v>
       </c>
       <c r="M69" t="s">
-        <v>1122</v>
+        <v>1142</v>
       </c>
       <c r="N69" t="s">
-        <v>148</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -51094,10 +51106,10 @@
         <v>2960</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>986</v>
+        <v>1125</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>1121</v>
@@ -51138,13 +51150,13 @@
         <v>2961</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>1135</v>
+        <v>986</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>357</v>
@@ -51171,10 +51183,10 @@
         <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>684</v>
+        <v>1122</v>
       </c>
       <c r="N73" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -51182,13 +51194,13 @@
         <v>2962</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>291</v>
+        <v>1135</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>292</v>
+        <v>1136</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>357</v>
@@ -51206,7 +51218,7 @@
         <v>2914</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K75" t="s">
         <v>2916</v>
@@ -51215,10 +51227,10 @@
         <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>295</v>
+        <v>684</v>
       </c>
       <c r="N75" t="s">
-        <v>296</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -51226,13 +51238,13 @@
         <v>2963</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>596</v>
+        <v>291</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>1141</v>
+        <v>292</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>357</v>
@@ -51250,7 +51262,7 @@
         <v>2914</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K77" t="s">
         <v>2916</v>
@@ -51259,10 +51271,10 @@
         <v>19</v>
       </c>
       <c r="M77" t="s">
-        <v>1142</v>
+        <v>295</v>
       </c>
       <c r="N77" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -51270,10 +51282,10 @@
         <v>2964</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>68</v>
+        <v>596</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>1141</v>
@@ -51314,13 +51326,13 @@
         <v>2965</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>2966</v>
+        <v>1144</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>2967</v>
+        <v>1141</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>357</v>
@@ -51338,7 +51350,7 @@
         <v>2914</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K81" t="s">
         <v>2916</v>
@@ -51347,24 +51359,24 @@
         <v>19</v>
       </c>
       <c r="M81" t="s">
-        <v>1817</v>
+        <v>1142</v>
       </c>
       <c r="N81" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="7" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>2968</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>1175</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>357</v>
@@ -51388,16 +51400,13 @@
         <v>2916</v>
       </c>
       <c r="L83" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M83" t="s">
-        <v>927</v>
+        <v>1817</v>
       </c>
       <c r="N83" t="s">
-        <v>469</v>
-      </c>
-      <c r="P83" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -51405,10 +51414,10 @@
         <v>2969</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>213</v>
+        <v>1174</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>1175</v>
@@ -51452,13 +51461,13 @@
         <v>2970</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1185</v>
+        <v>213</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>357</v>
@@ -51476,19 +51485,22 @@
         <v>2914</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K87" t="s">
         <v>2916</v>
       </c>
       <c r="L87" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="M87" t="s">
-        <v>1055</v>
+        <v>927</v>
       </c>
       <c r="N87" t="s">
-        <v>303</v>
+        <v>469</v>
+      </c>
+      <c r="P87" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -51496,13 +51508,13 @@
         <v>2971</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>357</v>
@@ -51529,10 +51541,10 @@
         <v>19</v>
       </c>
       <c r="M89" t="s">
-        <v>2478</v>
+        <v>1055</v>
       </c>
       <c r="N89" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -51540,19 +51552,19 @@
         <v>2972</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1215</v>
+        <v>1196</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>1216</v>
+        <v>1197</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>357</v>
+        <v>2032</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>358</v>
+        <v>2033</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>357</v>
@@ -51564,7 +51576,7 @@
         <v>2914</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K91" t="s">
         <v>2916</v>
@@ -51573,10 +51585,10 @@
         <v>19</v>
       </c>
       <c r="M91" t="s">
-        <v>1213</v>
+        <v>2668</v>
       </c>
       <c r="N91" t="s">
-        <v>311</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -51584,13 +51596,13 @@
         <v>2973</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>357</v>
@@ -51608,7 +51620,7 @@
         <v>2914</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K93" t="s">
         <v>2916</v>
@@ -51617,10 +51629,10 @@
         <v>19</v>
       </c>
       <c r="M93" t="s">
-        <v>1213</v>
+        <v>2478</v>
       </c>
       <c r="N93" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -51628,13 +51640,13 @@
         <v>2974</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1235</v>
+        <v>1212</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>357</v>
@@ -51652,7 +51664,7 @@
         <v>2914</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="K95" t="s">
         <v>2916</v>
@@ -51661,10 +51673,10 @@
         <v>19</v>
       </c>
       <c r="M95" t="s">
-        <v>1020</v>
+        <v>1213</v>
       </c>
       <c r="N95" t="s">
-        <v>432</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -51672,13 +51684,13 @@
         <v>2975</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1244</v>
+        <v>1210</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1245</v>
+        <v>1211</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1246</v>
+        <v>1212</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>357</v>
@@ -51696,7 +51708,7 @@
         <v>2914</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K97" t="s">
         <v>2916</v>
@@ -51705,10 +51717,10 @@
         <v>19</v>
       </c>
       <c r="M97" t="s">
-        <v>1247</v>
+        <v>1213</v>
       </c>
       <c r="N97" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -51716,13 +51728,13 @@
         <v>2976</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>202</v>
+        <v>1234</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>357</v>
@@ -51740,7 +51752,7 @@
         <v>2914</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K99" t="s">
         <v>2916</v>
@@ -51749,24 +51761,24 @@
         <v>19</v>
       </c>
       <c r="M99" t="s">
-        <v>2977</v>
+        <v>1020</v>
       </c>
       <c r="N99" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="7" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>357</v>
@@ -51793,24 +51805,24 @@
         <v>19</v>
       </c>
       <c r="M101" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="N101" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="7" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1267</v>
+        <v>1249</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>357</v>
@@ -51828,7 +51840,7 @@
         <v>2914</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K103" t="s">
         <v>2916</v>
@@ -51837,10 +51849,10 @@
         <v>19</v>
       </c>
       <c r="M103" t="s">
-        <v>593</v>
+        <v>2979</v>
       </c>
       <c r="N103" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -51848,13 +51860,13 @@
         <v>2980</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>213</v>
+        <v>1259</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>357</v>
@@ -51871,6 +51883,9 @@
       <c r="I105" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J105" s="8" t="s">
+        <v>2921</v>
+      </c>
       <c r="K105" t="s">
         <v>2916</v>
       </c>
@@ -51878,10 +51893,10 @@
         <v>19</v>
       </c>
       <c r="M105" t="s">
-        <v>833</v>
+        <v>1261</v>
       </c>
       <c r="N105" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -51889,13 +51904,13 @@
         <v>2981</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1286</v>
+        <v>1267</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>876</v>
+        <v>238</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1287</v>
+        <v>1268</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>357</v>
@@ -51913,7 +51928,7 @@
         <v>2914</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K107" t="s">
         <v>2916</v>
@@ -51922,24 +51937,24 @@
         <v>19</v>
       </c>
       <c r="M107" t="s">
-        <v>2982</v>
+        <v>593</v>
       </c>
       <c r="N107" t="s">
-        <v>148</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="7" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1305</v>
+        <v>1275</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1303</v>
+        <v>1276</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>357</v>
@@ -51956,9 +51971,6 @@
       <c r="I109" s="8" t="s">
         <v>2914</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>2921</v>
-      </c>
       <c r="K109" t="s">
         <v>2916</v>
       </c>
@@ -51966,24 +51978,24 @@
         <v>19</v>
       </c>
       <c r="M109" t="s">
-        <v>1931</v>
+        <v>833</v>
       </c>
       <c r="N109" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="7" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>1312</v>
+        <v>1286</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>86</v>
+        <v>876</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>357</v>
@@ -52001,7 +52013,7 @@
         <v>2914</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K111" t="s">
         <v>2916</v>
@@ -52010,10 +52022,10 @@
         <v>19</v>
       </c>
       <c r="M111" t="s">
-        <v>1310</v>
+        <v>2984</v>
       </c>
       <c r="N111" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -52021,13 +52033,13 @@
         <v>2985</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>1351</v>
+        <v>1305</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>1352</v>
+        <v>156</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1349</v>
+        <v>1303</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>357</v>
@@ -52045,7 +52057,7 @@
         <v>2914</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K113" t="s">
         <v>2916</v>
@@ -52054,24 +52066,24 @@
         <v>19</v>
       </c>
       <c r="M113" t="s">
-        <v>2986</v>
+        <v>1931</v>
       </c>
       <c r="N113" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="7" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>1371</v>
+        <v>1312</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>760</v>
+        <v>86</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1372</v>
+        <v>1309</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>357</v>
@@ -52089,7 +52101,7 @@
         <v>2914</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K115" t="s">
         <v>2916</v>
@@ -52098,24 +52110,24 @@
         <v>19</v>
       </c>
       <c r="M115" t="s">
-        <v>1724</v>
+        <v>1310</v>
       </c>
       <c r="N115" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="7" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>1406</v>
+        <v>1351</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>956</v>
+        <v>1352</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1407</v>
+        <v>1349</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>357</v>
@@ -52133,7 +52145,7 @@
         <v>2914</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K117" t="s">
         <v>2916</v>
@@ -52142,10 +52154,10 @@
         <v>19</v>
       </c>
       <c r="M117" t="s">
-        <v>1231</v>
+        <v>2988</v>
       </c>
       <c r="N117" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -52153,13 +52165,13 @@
         <v>2989</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1433</v>
+        <v>1371</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>1434</v>
+        <v>760</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1435</v>
+        <v>1372</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>357</v>
@@ -52186,10 +52198,10 @@
         <v>19</v>
       </c>
       <c r="M119" t="s">
-        <v>1020</v>
+        <v>1724</v>
       </c>
       <c r="N119" t="s">
-        <v>432</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -52197,13 +52209,13 @@
         <v>2990</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1453</v>
+        <v>1406</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>1090</v>
+        <v>956</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1454</v>
+        <v>1407</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>357</v>
@@ -52221,7 +52233,7 @@
         <v>2914</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K121" t="s">
         <v>2916</v>
@@ -52230,10 +52242,10 @@
         <v>19</v>
       </c>
       <c r="M121" t="s">
-        <v>121</v>
+        <v>1231</v>
       </c>
       <c r="N121" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -52241,13 +52253,13 @@
         <v>2991</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>1472</v>
+        <v>1433</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>29</v>
+        <v>1434</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>30</v>
+        <v>1435</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>357</v>
@@ -52265,7 +52277,7 @@
         <v>2914</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K123" t="s">
         <v>2916</v>
@@ -52274,10 +52286,10 @@
         <v>19</v>
       </c>
       <c r="M123" t="s">
-        <v>222</v>
+        <v>1020</v>
       </c>
       <c r="N123" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -52285,13 +52297,13 @@
         <v>2992</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>270</v>
+        <v>1090</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>30</v>
+        <v>1454</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>357</v>
@@ -52309,7 +52321,7 @@
         <v>2914</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>2915</v>
+        <v>2930</v>
       </c>
       <c r="K125" t="s">
         <v>2916</v>
@@ -52318,10 +52330,10 @@
         <v>19</v>
       </c>
       <c r="M125" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="N125" t="s">
-        <v>32</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -52329,19 +52341,19 @@
         <v>2993</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>419</v>
+        <v>1461</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>357</v>
+        <v>2032</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>358</v>
+        <v>2033</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>357</v>
@@ -52353,7 +52365,7 @@
         <v>2914</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K127" t="s">
         <v>2916</v>
@@ -52362,10 +52374,10 @@
         <v>19</v>
       </c>
       <c r="M127" t="s">
-        <v>2240</v>
+        <v>1247</v>
       </c>
       <c r="N127" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -52373,13 +52385,13 @@
         <v>2994</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>1489</v>
+        <v>1472</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1490</v>
+        <v>30</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>357</v>
@@ -52397,7 +52409,7 @@
         <v>2914</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K129" t="s">
         <v>2916</v>
@@ -52406,10 +52418,10 @@
         <v>19</v>
       </c>
       <c r="M129" t="s">
-        <v>963</v>
+        <v>222</v>
       </c>
       <c r="N129" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -52417,13 +52429,13 @@
         <v>2995</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>1502</v>
+        <v>1474</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>710</v>
+        <v>270</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1503</v>
+        <v>30</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>357</v>
@@ -52440,6 +52452,9 @@
       <c r="I131" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J131" s="8" t="s">
+        <v>2915</v>
+      </c>
       <c r="K131" t="s">
         <v>2916</v>
       </c>
@@ -52447,10 +52462,10 @@
         <v>19</v>
       </c>
       <c r="M131" t="s">
-        <v>1504</v>
+        <v>21</v>
       </c>
       <c r="N131" t="s">
-        <v>387</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -52458,13 +52473,13 @@
         <v>2996</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>1547</v>
+        <v>1476</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>1548</v>
+        <v>419</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1549</v>
+        <v>1477</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>357</v>
@@ -52482,7 +52497,7 @@
         <v>2914</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K133" t="s">
         <v>2916</v>
@@ -52491,10 +52506,10 @@
         <v>19</v>
       </c>
       <c r="M133" t="s">
-        <v>568</v>
+        <v>2240</v>
       </c>
       <c r="N133" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -52502,13 +52517,13 @@
         <v>2997</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>1559</v>
+        <v>1489</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>1560</v>
+        <v>126</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1561</v>
+        <v>1490</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>357</v>
@@ -52535,10 +52550,10 @@
         <v>19</v>
       </c>
       <c r="M135" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="N135" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -52546,13 +52561,13 @@
         <v>2998</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>1580</v>
+        <v>1502</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>590</v>
+        <v>710</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1577</v>
+        <v>1503</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>357</v>
@@ -52569,9 +52584,6 @@
       <c r="I137" s="8" t="s">
         <v>2914</v>
       </c>
-      <c r="J137" s="8" t="s">
-        <v>2915</v>
-      </c>
       <c r="K137" t="s">
         <v>2916</v>
       </c>
@@ -52579,10 +52591,10 @@
         <v>19</v>
       </c>
       <c r="M137" t="s">
-        <v>463</v>
+        <v>1504</v>
       </c>
       <c r="N137" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -52590,13 +52602,13 @@
         <v>2999</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1641</v>
+        <v>1547</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>25</v>
+        <v>1548</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1642</v>
+        <v>1549</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>357</v>
@@ -52623,10 +52635,10 @@
         <v>19</v>
       </c>
       <c r="M139" t="s">
-        <v>2531</v>
+        <v>568</v>
       </c>
       <c r="N139" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -52634,13 +52646,13 @@
         <v>3000</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1652</v>
+        <v>1559</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>228</v>
+        <v>1560</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>229</v>
+        <v>1561</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>357</v>
@@ -52667,10 +52679,10 @@
         <v>19</v>
       </c>
       <c r="M141" t="s">
-        <v>323</v>
+        <v>958</v>
       </c>
       <c r="N141" t="s">
-        <v>45</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -52678,13 +52690,13 @@
         <v>3001</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1655</v>
+        <v>1580</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>1656</v>
+        <v>590</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>229</v>
+        <v>1577</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>357</v>
@@ -52711,10 +52723,10 @@
         <v>19</v>
       </c>
       <c r="M143" t="s">
-        <v>323</v>
+        <v>463</v>
       </c>
       <c r="N143" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -52722,13 +52734,13 @@
         <v>3002</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1665</v>
+        <v>1641</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>57</v>
+        <v>1642</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>357</v>
@@ -52746,7 +52758,7 @@
         <v>2914</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K145" t="s">
         <v>2916</v>
@@ -52755,10 +52767,10 @@
         <v>19</v>
       </c>
       <c r="M145" t="s">
-        <v>53</v>
+        <v>2531</v>
       </c>
       <c r="N145" t="s">
-        <v>59</v>
+        <v>469</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -52766,13 +52778,13 @@
         <v>3003</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1703</v>
+        <v>1652</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>651</v>
+        <v>228</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1704</v>
+        <v>229</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>357</v>
@@ -52799,10 +52811,10 @@
         <v>19</v>
       </c>
       <c r="M147" t="s">
-        <v>1241</v>
+        <v>323</v>
       </c>
       <c r="N147" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -52810,13 +52822,13 @@
         <v>3004</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1721</v>
+        <v>1655</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>1722</v>
+        <v>1656</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1723</v>
+        <v>229</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>357</v>
@@ -52834,7 +52846,7 @@
         <v>2914</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K149" t="s">
         <v>2916</v>
@@ -52843,10 +52855,10 @@
         <v>19</v>
       </c>
       <c r="M149" t="s">
-        <v>1724</v>
+        <v>323</v>
       </c>
       <c r="N149" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -52854,13 +52866,13 @@
         <v>3005</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>1726</v>
+        <v>1665</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>270</v>
+        <v>56</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>357</v>
@@ -52878,7 +52890,7 @@
         <v>2914</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>3006</v>
+        <v>2930</v>
       </c>
       <c r="K151" t="s">
         <v>2916</v>
@@ -52887,24 +52899,24 @@
         <v>19</v>
       </c>
       <c r="M151" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="N151" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="7" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1770</v>
+        <v>1703</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>1076</v>
+        <v>651</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1771</v>
+        <v>1704</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>357</v>
@@ -52931,24 +52943,24 @@
         <v>19</v>
       </c>
       <c r="M153" t="s">
-        <v>767</v>
+        <v>1241</v>
       </c>
       <c r="N153" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="7" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>1786</v>
+        <v>1721</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>1787</v>
+        <v>1722</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>1784</v>
+        <v>1723</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>357</v>
@@ -52975,24 +52987,24 @@
         <v>19</v>
       </c>
       <c r="M155" t="s">
-        <v>323</v>
+        <v>1724</v>
       </c>
       <c r="N155" t="s">
-        <v>387</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="7" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1790</v>
+        <v>1726</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1791</v>
+        <v>271</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>357</v>
@@ -53010,7 +53022,7 @@
         <v>2914</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>2915</v>
+        <v>3009</v>
       </c>
       <c r="K157" t="s">
         <v>2916</v>
@@ -53019,10 +53031,10 @@
         <v>19</v>
       </c>
       <c r="M157" t="s">
-        <v>1204</v>
+        <v>233</v>
       </c>
       <c r="N157" t="s">
-        <v>361</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -53030,13 +53042,13 @@
         <v>3010</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>1796</v>
+        <v>1770</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>1797</v>
+        <v>1076</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1798</v>
+        <v>1771</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>357</v>
@@ -53063,10 +53075,10 @@
         <v>19</v>
       </c>
       <c r="M159" t="s">
-        <v>1142</v>
+        <v>767</v>
       </c>
       <c r="N159" t="s">
-        <v>315</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -53074,13 +53086,13 @@
         <v>3011</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>3012</v>
+        <v>1786</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>2224</v>
+        <v>1787</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1811</v>
+        <v>1784</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>357</v>
@@ -53097,6 +53109,9 @@
       <c r="I161" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J161" s="8" t="s">
+        <v>2921</v>
+      </c>
       <c r="K161" t="s">
         <v>2916</v>
       </c>
@@ -53104,24 +53119,24 @@
         <v>19</v>
       </c>
       <c r="M161" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="N161" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="7" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>1819</v>
+        <v>1790</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1820</v>
+        <v>1791</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>357</v>
@@ -53138,6 +53153,9 @@
       <c r="I163" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J163" s="8" t="s">
+        <v>2915</v>
+      </c>
       <c r="K163" t="s">
         <v>2916</v>
       </c>
@@ -53145,24 +53163,24 @@
         <v>19</v>
       </c>
       <c r="M163" t="s">
-        <v>524</v>
+        <v>1204</v>
       </c>
       <c r="N163" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="7" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>1863</v>
+        <v>1796</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>1864</v>
+        <v>1797</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1865</v>
+        <v>1798</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>357</v>
@@ -53180,7 +53198,7 @@
         <v>2914</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K165" t="s">
         <v>2916</v>
@@ -53189,24 +53207,24 @@
         <v>19</v>
       </c>
       <c r="M165" t="s">
-        <v>1463</v>
+        <v>1142</v>
       </c>
       <c r="N165" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="7" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>3015</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>1867</v>
-      </c>
       <c r="C167" s="8" t="s">
-        <v>1868</v>
+        <v>2224</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1869</v>
+        <v>1811</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>357</v>
@@ -53223,9 +53241,6 @@
       <c r="I167" s="8" t="s">
         <v>2914</v>
       </c>
-      <c r="J167" s="8" t="s">
-        <v>2915</v>
-      </c>
       <c r="K167" t="s">
         <v>2916</v>
       </c>
@@ -53233,10 +53248,10 @@
         <v>19</v>
       </c>
       <c r="M167" t="s">
-        <v>469</v>
+        <v>296</v>
       </c>
       <c r="N167" t="s">
-        <v>303</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -53244,13 +53259,13 @@
         <v>3016</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>1887</v>
+        <v>1819</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>956</v>
+        <v>68</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1884</v>
+        <v>1820</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>357</v>
@@ -53267,9 +53282,6 @@
       <c r="I169" s="8" t="s">
         <v>2914</v>
       </c>
-      <c r="J169" s="8" t="s">
-        <v>2915</v>
-      </c>
       <c r="K169" t="s">
         <v>2916</v>
       </c>
@@ -53277,10 +53289,10 @@
         <v>19</v>
       </c>
       <c r="M169" t="s">
-        <v>906</v>
+        <v>524</v>
       </c>
       <c r="N169" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -53288,13 +53300,13 @@
         <v>3017</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>1883</v>
+        <v>1863</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>1226</v>
+        <v>1864</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1884</v>
+        <v>1865</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>357</v>
@@ -53321,10 +53333,10 @@
         <v>19</v>
       </c>
       <c r="M171" t="s">
-        <v>906</v>
+        <v>1463</v>
       </c>
       <c r="N171" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -53332,13 +53344,13 @@
         <v>3018</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>1909</v>
+        <v>1867</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>202</v>
+        <v>1868</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1910</v>
+        <v>1869</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>357</v>
@@ -53356,7 +53368,7 @@
         <v>2914</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>2929</v>
+        <v>2915</v>
       </c>
       <c r="K173" t="s">
         <v>2916</v>
@@ -53365,10 +53377,10 @@
         <v>19</v>
       </c>
       <c r="M173" t="s">
-        <v>1038</v>
+        <v>469</v>
       </c>
       <c r="N173" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -53376,13 +53388,13 @@
         <v>3019</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>1953</v>
+        <v>1887</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>213</v>
+        <v>956</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>1954</v>
+        <v>1884</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>357</v>
@@ -53409,24 +53421,24 @@
         <v>19</v>
       </c>
       <c r="M175" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="N175" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="7" t="s">
         <v>3020</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>1969</v>
+        <v>1883</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>817</v>
+        <v>1226</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1970</v>
+        <v>1884</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>357</v>
@@ -53453,24 +53465,24 @@
         <v>19</v>
       </c>
       <c r="M177" t="s">
-        <v>437</v>
+        <v>906</v>
       </c>
       <c r="N177" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="7" t="s">
         <v>3021</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>2807</v>
+        <v>1909</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>1656</v>
+        <v>202</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>2808</v>
+        <v>1910</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>357</v>
@@ -53488,7 +53500,7 @@
         <v>2914</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K179" t="s">
         <v>2916</v>
@@ -53497,24 +53509,24 @@
         <v>19</v>
       </c>
       <c r="M179" t="s">
-        <v>2668</v>
+        <v>1038</v>
       </c>
       <c r="N179" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="7" t="s">
         <v>3022</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>2019</v>
+        <v>1953</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>2020</v>
+        <v>213</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>2017</v>
+        <v>1954</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>357</v>
@@ -53532,7 +53544,7 @@
         <v>2914</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K181" t="s">
         <v>2916</v>
@@ -53541,24 +53553,24 @@
         <v>19</v>
       </c>
       <c r="M181" t="s">
-        <v>147</v>
+        <v>941</v>
       </c>
       <c r="N181" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:14">
       <c r="A183" s="7" t="s">
         <v>3023</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>2015</v>
+        <v>1969</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>2016</v>
+        <v>817</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>2017</v>
+        <v>1970</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>357</v>
@@ -53576,33 +53588,33 @@
         <v>2914</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="K183" t="s">
         <v>2916</v>
       </c>
       <c r="L183" t="s">
-        <v>1935</v>
+        <v>19</v>
       </c>
       <c r="M183" t="s">
-        <v>953</v>
+        <v>437</v>
       </c>
       <c r="N183" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="7" t="s">
         <v>3024</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>2087</v>
+        <v>2807</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>969</v>
+        <v>1656</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>2088</v>
+        <v>2808</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>357</v>
@@ -53629,24 +53641,24 @@
         <v>19</v>
       </c>
       <c r="M185" t="s">
-        <v>2150</v>
+        <v>2668</v>
       </c>
       <c r="N185" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="7" t="s">
         <v>3025</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>2126</v>
+        <v>2019</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>850</v>
+        <v>2020</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>2127</v>
+        <v>2017</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>357</v>
@@ -53664,7 +53676,7 @@
         <v>2914</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K187" t="s">
         <v>2916</v>
@@ -53673,24 +53685,24 @@
         <v>19</v>
       </c>
       <c r="M187" t="s">
-        <v>2402</v>
+        <v>147</v>
       </c>
       <c r="N187" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="7" t="s">
         <v>3026</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>3027</v>
+        <v>2015</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>3028</v>
+        <v>2016</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>2221</v>
+        <v>2017</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>357</v>
@@ -53714,27 +53726,27 @@
         <v>2916</v>
       </c>
       <c r="L189" t="s">
-        <v>19</v>
+        <v>1935</v>
       </c>
       <c r="M189" t="s">
-        <v>794</v>
+        <v>953</v>
       </c>
       <c r="N189" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="7" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>2244</v>
+        <v>2087</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>2245</v>
+        <v>969</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>2246</v>
+        <v>2088</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>357</v>
@@ -53758,36 +53770,33 @@
         <v>2916</v>
       </c>
       <c r="L191" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M191" t="s">
-        <v>1630</v>
+        <v>2150</v>
       </c>
       <c r="N191" t="s">
-        <v>320</v>
-      </c>
-      <c r="P191" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
       <c r="A193" s="7" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>3031</v>
+        <v>2114</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>3032</v>
+        <v>2115</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>3033</v>
+        <v>2107</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>357</v>
+        <v>2032</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>358</v>
+        <v>2033</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>357</v>
@@ -53799,7 +53808,7 @@
         <v>2914</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K193" t="s">
         <v>2916</v>
@@ -53808,24 +53817,24 @@
         <v>19</v>
       </c>
       <c r="M193" t="s">
-        <v>2217</v>
+        <v>1942</v>
       </c>
       <c r="N193" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
       <c r="A195" s="7" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>2272</v>
+        <v>2126</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>2273</v>
+        <v>850</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>2274</v>
+        <v>2127</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>357</v>
@@ -53852,24 +53861,24 @@
         <v>19</v>
       </c>
       <c r="M195" t="s">
-        <v>3035</v>
+        <v>2402</v>
       </c>
       <c r="N195" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
       <c r="A197" s="7" t="s">
-        <v>3036</v>
+        <v>3030</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>2278</v>
+        <v>3031</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>2279</v>
+        <v>3032</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>195</v>
+        <v>2221</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>357</v>
@@ -53887,7 +53896,7 @@
         <v>2914</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K197" t="s">
         <v>2916</v>
@@ -53896,24 +53905,24 @@
         <v>19</v>
       </c>
       <c r="M197" t="s">
-        <v>2280</v>
+        <v>794</v>
       </c>
       <c r="N197" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
       <c r="A199" s="7" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>2297</v>
+        <v>2244</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>135</v>
+        <v>2245</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>2298</v>
+        <v>2246</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>357</v>
@@ -53931,33 +53940,36 @@
         <v>2914</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="K199" t="s">
         <v>2916</v>
       </c>
       <c r="L199" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="M199" t="s">
-        <v>767</v>
+        <v>1630</v>
       </c>
       <c r="N199" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14">
+        <v>320</v>
+      </c>
+      <c r="P199" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
       <c r="A201" s="7" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>2351</v>
+        <v>3035</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>2352</v>
+        <v>3036</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>2353</v>
+        <v>3037</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>357</v>
@@ -53975,7 +53987,7 @@
         <v>2914</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>3039</v>
+        <v>2930</v>
       </c>
       <c r="K201" t="s">
         <v>2916</v>
@@ -53984,24 +53996,24 @@
         <v>19</v>
       </c>
       <c r="M201" t="s">
-        <v>542</v>
+        <v>2217</v>
       </c>
       <c r="N201" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
       <c r="A203" s="7" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>2355</v>
+        <v>2272</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>41</v>
+        <v>2273</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>2353</v>
+        <v>2274</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>357</v>
@@ -54018,6 +54030,9 @@
       <c r="I203" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J203" s="8" t="s">
+        <v>2915</v>
+      </c>
       <c r="K203" t="s">
         <v>2916</v>
       </c>
@@ -54025,24 +54040,24 @@
         <v>19</v>
       </c>
       <c r="M203" t="s">
-        <v>542</v>
+        <v>3039</v>
       </c>
       <c r="N203" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
       <c r="A205" s="7" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>2357</v>
+        <v>2278</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>1125</v>
+        <v>2279</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>2358</v>
+        <v>195</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>357</v>
@@ -54060,7 +54075,7 @@
         <v>2914</v>
       </c>
       <c r="J205" s="8" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="K205" t="s">
         <v>2916</v>
@@ -54069,24 +54084,24 @@
         <v>19</v>
       </c>
       <c r="M205" t="s">
-        <v>1670</v>
+        <v>2280</v>
       </c>
       <c r="N205" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:16">
       <c r="A207" s="7" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>3043</v>
+        <v>2297</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>2392</v>
+        <v>135</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>2388</v>
+        <v>2298</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>357</v>
@@ -54103,6 +54118,9 @@
       <c r="I207" s="8" t="s">
         <v>2914</v>
       </c>
+      <c r="J207" s="8" t="s">
+        <v>2915</v>
+      </c>
       <c r="K207" t="s">
         <v>2916</v>
       </c>
@@ -54110,24 +54128,24 @@
         <v>19</v>
       </c>
       <c r="M207" t="s">
-        <v>2402</v>
+        <v>767</v>
       </c>
       <c r="N207" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="7" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>2387</v>
+        <v>2351</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>188</v>
+        <v>2352</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>2388</v>
+        <v>2353</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>357</v>
@@ -54145,7 +54163,7 @@
         <v>2914</v>
       </c>
       <c r="J209" s="8" t="s">
-        <v>2921</v>
+        <v>3043</v>
       </c>
       <c r="K209" t="s">
         <v>2916</v>
@@ -54154,24 +54172,24 @@
         <v>19</v>
       </c>
       <c r="M209" t="s">
-        <v>2402</v>
+        <v>542</v>
       </c>
       <c r="N209" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="7" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>2394</v>
+        <v>2355</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>203</v>
+        <v>2353</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>357</v>
@@ -54188,9 +54206,6 @@
       <c r="I211" s="8" t="s">
         <v>2914</v>
       </c>
-      <c r="J211" s="8" t="s">
-        <v>2915</v>
-      </c>
       <c r="K211" t="s">
         <v>2916</v>
       </c>
@@ -54198,24 +54213,24 @@
         <v>19</v>
       </c>
       <c r="M211" t="s">
-        <v>191</v>
+        <v>542</v>
       </c>
       <c r="N211" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="7" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>3047</v>
+        <v>2357</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>51</v>
+        <v>1125</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>3048</v>
+        <v>2358</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>357</v>
@@ -54233,7 +54248,7 @@
         <v>2914</v>
       </c>
       <c r="J213" s="8" t="s">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="K213" t="s">
         <v>2916</v>
@@ -54242,24 +54257,24 @@
         <v>19</v>
       </c>
       <c r="M213" t="s">
-        <v>1478</v>
+        <v>1670</v>
       </c>
       <c r="N213" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="7" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>2416</v>
+        <v>3047</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>2417</v>
+        <v>2392</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>2418</v>
+        <v>2388</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>357</v>
@@ -54283,24 +54298,24 @@
         <v>19</v>
       </c>
       <c r="M215" t="s">
-        <v>806</v>
+        <v>2402</v>
       </c>
       <c r="N215" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="7" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>2420</v>
+        <v>2387</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>217</v>
+        <v>2388</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>357</v>
@@ -54318,7 +54333,7 @@
         <v>2914</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="K217" t="s">
         <v>2916</v>
@@ -54327,9 +54342,182 @@
         <v>19</v>
       </c>
       <c r="M217" t="s">
+        <v>2402</v>
+      </c>
+      <c r="N217" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="7" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>2915</v>
+      </c>
+      <c r="K219" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L219" t="s">
+        <v>19</v>
+      </c>
+      <c r="M219" t="s">
+        <v>191</v>
+      </c>
+      <c r="N219" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="7" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I221" s="8" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J221" s="8" t="s">
+        <v>2921</v>
+      </c>
+      <c r="K221" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L221" t="s">
+        <v>19</v>
+      </c>
+      <c r="M221" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N221" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="7" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>2914</v>
+      </c>
+      <c r="K223" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L223" t="s">
+        <v>19</v>
+      </c>
+      <c r="M223" t="s">
+        <v>806</v>
+      </c>
+      <c r="N223" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="7" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I225" s="8" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>2930</v>
+      </c>
+      <c r="K225" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L225" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" t="s">
         <v>222</v>
       </c>
-      <c r="N217" t="s">
+      <c r="N225" t="s">
         <v>22</v>
       </c>
     </row>
@@ -54399,8 +54587,8 @@
     <hyperlink ref="B62" r:id="rId62"/>
     <hyperlink ref="A64" r:id="rId63"/>
     <hyperlink ref="B64" r:id="rId64"/>
-    <hyperlink ref="A65" r:id="rId65"/>
-    <hyperlink ref="B65" r:id="rId66"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="B66" r:id="rId66"/>
     <hyperlink ref="A67" r:id="rId67"/>
     <hyperlink ref="B67" r:id="rId68"/>
     <hyperlink ref="A69" r:id="rId69"/>
@@ -54553,6 +54741,14 @@
     <hyperlink ref="B215" r:id="rId216"/>
     <hyperlink ref="A217" r:id="rId217"/>
     <hyperlink ref="B217" r:id="rId218"/>
+    <hyperlink ref="A219" r:id="rId219"/>
+    <hyperlink ref="B219" r:id="rId220"/>
+    <hyperlink ref="A221" r:id="rId221"/>
+    <hyperlink ref="B221" r:id="rId222"/>
+    <hyperlink ref="A223" r:id="rId223"/>
+    <hyperlink ref="B223" r:id="rId224"/>
+    <hyperlink ref="A225" r:id="rId225"/>
+    <hyperlink ref="B225" r:id="rId226"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54633,7 +54829,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2547</v>
@@ -54657,16 +54853,16 @@
         <v>358</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="K2" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>3054</v>
+        <v>3058</v>
       </c>
       <c r="N2" t="s">
         <v>387</v>
@@ -54674,7 +54870,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>3055</v>
+        <v>3059</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2551</v>
@@ -54698,10 +54894,10 @@
         <v>358</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="K4" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -54715,7 +54911,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>3056</v>
+        <v>3060</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2701</v>
@@ -54739,16 +54935,16 @@
         <v>358</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="K6" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>3057</v>
+        <v>3061</v>
       </c>
       <c r="N6" t="s">
         <v>148</v>
@@ -54756,7 +54952,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>3058</v>
+        <v>3062</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2771</v>
@@ -54780,10 +54976,10 @@
         <v>358</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="K8" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -54797,7 +54993,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>3059</v>
+        <v>3063</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2832</v>
@@ -54821,10 +55017,10 @@
         <v>358</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="K10" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
